--- a/data/mlb.xlsx
+++ b/data/mlb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec5eed8c1d9fe52b/Documents/Rorschach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D783E48-B41E-498A-BBCE-150C7186F704}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D205AA21-5FBC-4A83-9A04-092A654F3603}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
+    <workbookView xWindow="7580" yWindow="40" windowWidth="28800" windowHeight="15370" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,6 +522,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9584DC3-3EF6-46C8-816C-715482D54D92}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
